--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H2">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I2">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J2">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>58.378819</v>
+        <v>0.052331</v>
       </c>
       <c r="N2">
-        <v>175.136457</v>
+        <v>0.104662</v>
       </c>
       <c r="O2">
-        <v>0.6920327730022572</v>
+        <v>0.0001084679645805325</v>
       </c>
       <c r="P2">
-        <v>0.6920327730022573</v>
+        <v>7.231459099251979E-05</v>
       </c>
       <c r="Q2">
-        <v>3763.837923724997</v>
+        <v>0.004266965078</v>
       </c>
       <c r="R2">
-        <v>33874.54131352498</v>
+        <v>0.017067860312</v>
       </c>
       <c r="S2">
-        <v>0.320725346420576</v>
+        <v>8.217490500122348E-09</v>
       </c>
       <c r="T2">
-        <v>0.320725346420576</v>
+        <v>3.653047585905671E-09</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H3">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I3">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J3">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,60 +620,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.979641</v>
+        <v>112.0466536666667</v>
       </c>
       <c r="N3">
-        <v>77.938923</v>
+        <v>336.139961</v>
       </c>
       <c r="O3">
-        <v>0.3079672269977427</v>
+        <v>0.232242312611706</v>
       </c>
       <c r="P3">
-        <v>0.3079672269977428</v>
+        <v>0.2322507098656298</v>
       </c>
       <c r="Q3">
-        <v>1674.976639053983</v>
+        <v>9.136060046672666</v>
       </c>
       <c r="R3">
-        <v>15074.78975148585</v>
+        <v>54.81636028003599</v>
       </c>
       <c r="S3">
-        <v>0.1427286386113292</v>
+        <v>1.759458661360058E-05</v>
       </c>
       <c r="T3">
-        <v>0.1427286386113292</v>
+        <v>1.173238876629031E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1347426666666667</v>
+        <v>0.081538</v>
       </c>
       <c r="H4">
-        <v>0.404228</v>
+        <v>0.163076</v>
       </c>
       <c r="I4">
-        <v>0.000968581456306409</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J4">
-        <v>0.0009685814563064089</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,60 +682,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.378819</v>
+        <v>335.9255523333333</v>
       </c>
       <c r="N4">
-        <v>175.136457</v>
+        <v>1007.776657</v>
       </c>
       <c r="O4">
-        <v>0.6920327730022572</v>
+        <v>0.6962825268423649</v>
       </c>
       <c r="P4">
-        <v>0.6920327730022573</v>
+        <v>0.6963077025354368</v>
       </c>
       <c r="Q4">
-        <v>7.866117748910668</v>
+        <v>27.39069768615533</v>
       </c>
       <c r="R4">
-        <v>70.79505974019601</v>
+        <v>164.344186116932</v>
       </c>
       <c r="S4">
-        <v>0.0006702901110862889</v>
+        <v>5.275009143810587E-05</v>
       </c>
       <c r="T4">
-        <v>0.0006702901110862889</v>
+        <v>3.517471559865029E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1347426666666667</v>
+        <v>0.081538</v>
       </c>
       <c r="H5">
-        <v>0.404228</v>
+        <v>0.163076</v>
       </c>
       <c r="I5">
-        <v>0.000968581456306409</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J5">
-        <v>0.0009685814563064089</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,39 +744,39 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.979641</v>
+        <v>34.43127566666667</v>
       </c>
       <c r="N5">
-        <v>77.938923</v>
+        <v>103.293827</v>
       </c>
       <c r="O5">
-        <v>0.3079672269977427</v>
+        <v>0.07136669258134852</v>
       </c>
       <c r="P5">
-        <v>0.3079672269977428</v>
+        <v>0.07136927300794077</v>
       </c>
       <c r="Q5">
-        <v>3.500566107382667</v>
+        <v>2.807457355308667</v>
       </c>
       <c r="R5">
-        <v>31.505094966444</v>
+        <v>16.844744131852</v>
       </c>
       <c r="S5">
-        <v>0.0002982913452201201</v>
+        <v>5.406712669315073E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002982913452201201</v>
+        <v>3.605293854133381E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,108 +788,976 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.50600166666668</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H6">
-        <v>223.518005</v>
+        <v>243.05191</v>
       </c>
       <c r="I6">
-        <v>0.5355774335117884</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J6">
-        <v>0.5355774335117883</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>58.378819</v>
+        <v>0.052331</v>
       </c>
       <c r="N6">
-        <v>175.136457</v>
+        <v>0.104662</v>
       </c>
       <c r="O6">
-        <v>0.6920327730022572</v>
+        <v>0.0001084679645805325</v>
       </c>
       <c r="P6">
-        <v>0.6920327730022573</v>
+        <v>7.231459099251979E-05</v>
       </c>
       <c r="Q6">
-        <v>4349.572385712032</v>
+        <v>4.239716500736667</v>
       </c>
       <c r="R6">
-        <v>39146.15147140829</v>
+        <v>25.43829900442</v>
       </c>
       <c r="S6">
-        <v>0.370637136470595</v>
+        <v>8.165014109828512E-06</v>
       </c>
       <c r="T6">
-        <v>0.370637136470595</v>
+        <v>5.444579172136073E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>81.01730333333333</v>
+      </c>
+      <c r="H7">
+        <v>243.05191</v>
+      </c>
+      <c r="I7">
+        <v>0.07527581200038437</v>
+      </c>
+      <c r="J7">
+        <v>0.07529018829269545</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N7">
+        <v>336.139961</v>
+      </c>
+      <c r="O7">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P7">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q7">
+        <v>9077.717727597277</v>
+      </c>
+      <c r="R7">
+        <v>81699.4595483755</v>
+      </c>
+      <c r="S7">
+        <v>0.01748222866269328</v>
+      </c>
+      <c r="T7">
+        <v>0.01748619967689545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>81.01730333333333</v>
+      </c>
+      <c r="H8">
+        <v>243.05191</v>
+      </c>
+      <c r="I8">
+        <v>0.07527581200038437</v>
+      </c>
+      <c r="J8">
+        <v>0.07529018829269545</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N8">
+        <v>1007.776657</v>
+      </c>
+      <c r="O8">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P8">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q8">
+        <v>27215.78237080721</v>
+      </c>
+      <c r="R8">
+        <v>244942.0413372648</v>
+      </c>
+      <c r="S8">
+        <v>0.05241323258973844</v>
+      </c>
+      <c r="T8">
+        <v>0.05242513803354721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>81.01730333333333</v>
+      </c>
+      <c r="H9">
+        <v>243.05191</v>
+      </c>
+      <c r="I9">
+        <v>0.07527581200038437</v>
+      </c>
+      <c r="J9">
+        <v>0.07529018829269545</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N9">
+        <v>103.293827</v>
+      </c>
+      <c r="O9">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P9">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q9">
+        <v>2789.529104839953</v>
+      </c>
+      <c r="R9">
+        <v>25105.76194355957</v>
+      </c>
+      <c r="S9">
+        <v>0.005372185733842817</v>
+      </c>
+      <c r="T9">
+        <v>0.005373406003080648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.534989</v>
+      </c>
+      <c r="H10">
+        <v>1.069978</v>
+      </c>
+      <c r="I10">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J10">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.052331</v>
+      </c>
+      <c r="N10">
+        <v>0.104662</v>
+      </c>
+      <c r="O10">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P10">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q10">
+        <v>0.027996509359</v>
+      </c>
+      <c r="R10">
+        <v>0.111986037436</v>
+      </c>
+      <c r="S10">
+        <v>5.391678757352345E-08</v>
+      </c>
+      <c r="T10">
+        <v>2.396845979710183E-08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.534989</v>
+      </c>
+      <c r="H11">
+        <v>1.069978</v>
+      </c>
+      <c r="I11">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J11">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N11">
+        <v>336.139961</v>
+      </c>
+      <c r="O11">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P11">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q11">
+        <v>59.94372719847633</v>
+      </c>
+      <c r="R11">
+        <v>359.662363190858</v>
+      </c>
+      <c r="S11">
+        <v>0.0001154420061544748</v>
+      </c>
+      <c r="T11">
+        <v>7.69788188781781E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.534989</v>
+      </c>
+      <c r="H12">
+        <v>1.069978</v>
+      </c>
+      <c r="I12">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J12">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N12">
+        <v>1007.776657</v>
+      </c>
+      <c r="O12">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P12">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q12">
+        <v>179.7164753172577</v>
+      </c>
+      <c r="R12">
+        <v>1078.298851903546</v>
+      </c>
+      <c r="S12">
+        <v>0.0003461051125656851</v>
+      </c>
+      <c r="T12">
+        <v>0.0002307891525841488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>74.50600166666668</v>
-      </c>
-      <c r="H7">
-        <v>223.518005</v>
-      </c>
-      <c r="I7">
-        <v>0.5355774335117884</v>
-      </c>
-      <c r="J7">
-        <v>0.5355774335117883</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>25.979641</v>
-      </c>
-      <c r="N7">
-        <v>77.938923</v>
-      </c>
-      <c r="O7">
-        <v>0.3079672269977427</v>
-      </c>
-      <c r="P7">
-        <v>0.3079672269977428</v>
-      </c>
-      <c r="Q7">
-        <v>1935.639175645402</v>
-      </c>
-      <c r="R7">
-        <v>17420.75258080862</v>
-      </c>
-      <c r="S7">
-        <v>0.1649402970411934</v>
-      </c>
-      <c r="T7">
-        <v>0.1649402970411934</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.534989</v>
+      </c>
+      <c r="H13">
+        <v>1.069978</v>
+      </c>
+      <c r="I13">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J13">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N13">
+        <v>103.293827</v>
+      </c>
+      <c r="O13">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P13">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q13">
+        <v>18.42035373763434</v>
+      </c>
+      <c r="R13">
+        <v>110.522122425806</v>
+      </c>
+      <c r="S13">
+        <v>3.547464745571637E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.365513691443209E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H14">
+        <v>2849.293091</v>
+      </c>
+      <c r="I14">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J14">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.052331</v>
+      </c>
+      <c r="N14">
+        <v>0.104662</v>
+      </c>
+      <c r="O14">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P14">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q14">
+        <v>49.70211891504034</v>
+      </c>
+      <c r="R14">
+        <v>298.212713490242</v>
+      </c>
+      <c r="S14">
+        <v>9.571831091988497E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.382670195255744E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H15">
+        <v>2849.293091</v>
+      </c>
+      <c r="I15">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J15">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N15">
+        <v>336.139961</v>
+      </c>
+      <c r="O15">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P15">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q15">
+        <v>106417.9187207011</v>
+      </c>
+      <c r="R15">
+        <v>957761.2684863096</v>
+      </c>
+      <c r="S15">
+        <v>0.2049438465383552</v>
+      </c>
+      <c r="T15">
+        <v>0.2049903986651438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H16">
+        <v>2849.293091</v>
+      </c>
+      <c r="I16">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J16">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N16">
+        <v>1007.776657</v>
+      </c>
+      <c r="O16">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P16">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q16">
+        <v>319050.1184512419</v>
+      </c>
+      <c r="R16">
+        <v>2871451.066061177</v>
+      </c>
+      <c r="S16">
+        <v>0.6144393660387931</v>
+      </c>
+      <c r="T16">
+        <v>0.6145789333385918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H17">
+        <v>2849.293091</v>
+      </c>
+      <c r="I17">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J17">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N17">
+        <v>103.293827</v>
+      </c>
+      <c r="O17">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P17">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q17">
+        <v>32701.59862378326</v>
+      </c>
+      <c r="R17">
+        <v>294314.3876140493</v>
+      </c>
+      <c r="S17">
+        <v>0.06297803500086506</v>
+      </c>
+      <c r="T17">
+        <v>0.06299234019479878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H18">
+        <v>134.623594</v>
+      </c>
+      <c r="I18">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J18">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.052331</v>
+      </c>
+      <c r="N18">
+        <v>0.104662</v>
+      </c>
+      <c r="O18">
+        <v>0.0001084679645805325</v>
+      </c>
+      <c r="P18">
+        <v>7.231459099251979E-05</v>
+      </c>
+      <c r="Q18">
+        <v>2.348329099204667</v>
+      </c>
+      <c r="R18">
+        <v>14.089974595228</v>
+      </c>
+      <c r="S18">
+        <v>4.522505272745336E-06</v>
+      </c>
+      <c r="T18">
+        <v>3.01568836044326E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H19">
+        <v>134.623594</v>
+      </c>
+      <c r="I19">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J19">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>112.0466536666667</v>
+      </c>
+      <c r="N19">
+        <v>336.139961</v>
+      </c>
+      <c r="O19">
+        <v>0.232242312611706</v>
+      </c>
+      <c r="P19">
+        <v>0.2322507098656298</v>
+      </c>
+      <c r="Q19">
+        <v>5028.04107075998</v>
+      </c>
+      <c r="R19">
+        <v>45252.36963683983</v>
+      </c>
+      <c r="S19">
+        <v>0.009683200817889407</v>
+      </c>
+      <c r="T19">
+        <v>0.009685400315946105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H20">
+        <v>134.623594</v>
+      </c>
+      <c r="I20">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J20">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>335.9255523333333</v>
+      </c>
+      <c r="N20">
+        <v>1007.776657</v>
+      </c>
+      <c r="O20">
+        <v>0.6962825268423649</v>
+      </c>
+      <c r="P20">
+        <v>0.6963077025354368</v>
+      </c>
+      <c r="Q20">
+        <v>15074.50172384947</v>
+      </c>
+      <c r="R20">
+        <v>135670.5155146452</v>
+      </c>
+      <c r="S20">
+        <v>0.02903107300982953</v>
+      </c>
+      <c r="T20">
+        <v>0.02903766729511493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H21">
+        <v>134.623594</v>
+      </c>
+      <c r="I21">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J21">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.43127566666667</v>
+      </c>
+      <c r="N21">
+        <v>103.293827</v>
+      </c>
+      <c r="O21">
+        <v>0.07136669258134852</v>
+      </c>
+      <c r="P21">
+        <v>0.07136927300794077</v>
+      </c>
+      <c r="Q21">
+        <v>1545.087358750471</v>
+      </c>
+      <c r="R21">
+        <v>13905.78622875424</v>
+      </c>
+      <c r="S21">
+        <v>0.002975590486515606</v>
+      </c>
+      <c r="T21">
+        <v>0.002976266379292769</v>
       </c>
     </row>
   </sheetData>
